--- a/Spotify_Proj/Spotify2023_TableauProj.xlsx
+++ b/Spotify_Proj/Spotify2023_TableauProj.xlsx
@@ -1733,6 +1733,11 @@
       <c r="P14" t="n">
         <v>118</v>
       </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
       <c r="R14" t="inlineStr">
         <is>
           <t>Major</t>
@@ -2188,6 +2193,11 @@
       <c r="P19" t="n">
         <v>78</v>
       </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
       <c r="R19" t="inlineStr">
         <is>
           <t>Major</t>
@@ -3852,6 +3862,11 @@
       <c r="P37" t="n">
         <v>120</v>
       </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
       <c r="R37" t="inlineStr">
         <is>
           <t>Major</t>
@@ -4684,6 +4699,11 @@
       <c r="P46" t="n">
         <v>144</v>
       </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
       <c r="R46" t="inlineStr">
         <is>
           <t>Major</t>
@@ -5966,6 +5986,11 @@
       <c r="P60" t="n">
         <v>128</v>
       </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr">
         <is>
           <t>Minor</t>
@@ -13082,6 +13107,11 @@
       <c r="P137" t="n">
         <v>140</v>
       </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
       <c r="R137" t="inlineStr">
         <is>
           <t>Major</t>
@@ -13914,6 +13944,11 @@
       <c r="P146" t="n">
         <v>97</v>
       </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
       <c r="R146" t="inlineStr">
         <is>
           <t>Major</t>
@@ -14560,6 +14595,11 @@
       <c r="P153" t="n">
         <v>122</v>
       </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
       <c r="R153" t="inlineStr">
         <is>
           <t>Major</t>
@@ -17300,6 +17340,11 @@
       <c r="P183" t="n">
         <v>98</v>
       </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
       <c r="R183" t="inlineStr">
         <is>
           <t>Major</t>
@@ -24534,6 +24579,11 @@
       <c r="P261" t="n">
         <v>80</v>
       </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
       <c r="R261" t="inlineStr">
         <is>
           <t>Major</t>
@@ -27123,6 +27173,11 @@
       <c r="P289" t="n">
         <v>132</v>
       </c>
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>Cm</t>
+        </is>
+      </c>
       <c r="R289" t="inlineStr">
         <is>
           <t>Minor</t>
@@ -31273,6 +31328,11 @@
       <c r="P334" t="n">
         <v>95</v>
       </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
       <c r="R334" t="inlineStr">
         <is>
           <t>Major</t>
@@ -35071,6 +35131,11 @@
       <c r="P375" t="n">
         <v>148</v>
       </c>
+      <c r="Q375" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
       <c r="R375" t="inlineStr">
         <is>
           <t>Major</t>
@@ -35624,6 +35689,11 @@
       <c r="P381" t="n">
         <v>125</v>
       </c>
+      <c r="Q381" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
       <c r="R381" t="inlineStr">
         <is>
           <t>Major</t>
@@ -35805,6 +35875,11 @@
       <c r="P383" t="n">
         <v>115</v>
       </c>
+      <c r="Q383" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
+      </c>
       <c r="R383" t="inlineStr">
         <is>
           <t>Major</t>
@@ -36171,6 +36246,11 @@
       </c>
       <c r="P387" t="n">
         <v>100</v>
+      </c>
+      <c r="Q387" t="inlineStr">
+        <is>
+          <t>C#</t>
+        </is>
       </c>
       <c r="R387" t="inlineStr">
         <is>
